--- a/301409-hackathon-backend/OutReach Event Information.xlsx
+++ b/301409-hackathon-backend/OutReach Event Information.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="263">
   <si>
     <t>Event ID</t>
   </si>
@@ -771,172 +771,64 @@
     <t>Others(147)</t>
   </si>
   <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
-    <t>Name 4</t>
-  </si>
-  <si>
-    <t>Name 5</t>
-  </si>
-  <si>
-    <t>Name 6</t>
-  </si>
-  <si>
-    <t>Name 7</t>
-  </si>
-  <si>
-    <t>Name 8</t>
-  </si>
-  <si>
-    <t>Name 9</t>
-  </si>
-  <si>
-    <t>Name 10</t>
-  </si>
-  <si>
-    <t>Name 11</t>
-  </si>
-  <si>
-    <t>Name 12</t>
-  </si>
-  <si>
-    <t>Name 13</t>
-  </si>
-  <si>
-    <t>Name 14</t>
-  </si>
-  <si>
-    <t>Name 15</t>
-  </si>
-  <si>
-    <t>Name 16</t>
-  </si>
-  <si>
-    <t>Name 17</t>
-  </si>
-  <si>
-    <t>Name 18</t>
-  </si>
-  <si>
-    <t>Name 19</t>
-  </si>
-  <si>
-    <t>Name 20</t>
-  </si>
-  <si>
-    <t>Name 21</t>
-  </si>
-  <si>
-    <t>Name 22</t>
-  </si>
-  <si>
-    <t>Name 23</t>
-  </si>
-  <si>
-    <t>Name 24</t>
-  </si>
-  <si>
-    <t>Name 25</t>
-  </si>
-  <si>
-    <t>Name 26</t>
-  </si>
-  <si>
-    <t>Name 27</t>
-  </si>
-  <si>
-    <t>Name 28</t>
-  </si>
-  <si>
-    <t>Name 29</t>
-  </si>
-  <si>
-    <t>Name 30</t>
-  </si>
-  <si>
-    <t>Name 31</t>
-  </si>
-  <si>
-    <t>Name 32</t>
-  </si>
-  <si>
-    <t>Name 33</t>
-  </si>
-  <si>
-    <t>Name 34</t>
-  </si>
-  <si>
-    <t>Name 35</t>
-  </si>
-  <si>
-    <t>Name 36</t>
-  </si>
-  <si>
-    <t>Name 37</t>
-  </si>
-  <si>
-    <t>Name 38</t>
-  </si>
-  <si>
-    <t>Name 39</t>
-  </si>
-  <si>
-    <t>Name 40</t>
-  </si>
-  <si>
-    <t>Name 41</t>
-  </si>
-  <si>
-    <t>Name 42</t>
-  </si>
-  <si>
-    <t>Name 43</t>
-  </si>
-  <si>
-    <t>Name 44</t>
-  </si>
-  <si>
-    <t>Name 45</t>
-  </si>
-  <si>
-    <t>Name 46</t>
-  </si>
-  <si>
-    <t>Name 47</t>
-  </si>
-  <si>
-    <t>Name 48</t>
-  </si>
-  <si>
-    <t>Name 49</t>
-  </si>
-  <si>
-    <t>Name 50</t>
-  </si>
-  <si>
-    <t>Name 51</t>
-  </si>
-  <si>
-    <t>Name 52</t>
-  </si>
-  <si>
-    <t>Name 53</t>
-  </si>
-  <si>
-    <t>Name 54</t>
-  </si>
-  <si>
-    <t>Name 55</t>
-  </si>
-  <si>
-    <t>Name 56</t>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Liraz</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Dhoni</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>Moorthy</t>
+  </si>
+  <si>
+    <t>Selva</t>
+  </si>
+  <si>
+    <t>Sethu</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Prabhu</t>
+  </si>
+  <si>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t>Aravind</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="24.75" customHeight="1"/>
@@ -1367,10 +1259,10 @@
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2">
+        <v>458963</v>
+      </c>
+      <c r="I2" t="s">
         <v>243</v>
       </c>
       <c r="J2" s="1">
@@ -1389,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1">
@@ -1414,10 +1306,10 @@
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3">
+        <v>458964</v>
+      </c>
+      <c r="I3" t="s">
         <v>244</v>
       </c>
       <c r="J3" s="1">
@@ -1436,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1">
@@ -1461,10 +1353,10 @@
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4">
+        <v>458965</v>
+      </c>
+      <c r="I4" t="s">
         <v>245</v>
       </c>
       <c r="J4" s="1">
@@ -1483,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24.75" customHeight="1">
@@ -1508,10 +1400,10 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5">
+        <v>458966</v>
+      </c>
+      <c r="I5" t="s">
         <v>246</v>
       </c>
       <c r="J5" s="1">
@@ -1530,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="24.75" customHeight="1">
@@ -1555,10 +1447,10 @@
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6">
+        <v>458967</v>
+      </c>
+      <c r="I6" t="s">
         <v>247</v>
       </c>
       <c r="J6" s="1">
@@ -1577,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.75" customHeight="1">
@@ -1602,10 +1494,10 @@
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7">
+        <v>458968</v>
+      </c>
+      <c r="I7" t="s">
         <v>248</v>
       </c>
       <c r="J7" s="1">
@@ -1624,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1">
@@ -1649,10 +1541,10 @@
       <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8">
+        <v>458969</v>
+      </c>
+      <c r="I8" t="s">
         <v>249</v>
       </c>
       <c r="J8" s="1">
@@ -1671,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1">
@@ -1696,10 +1588,10 @@
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9">
+        <v>458970</v>
+      </c>
+      <c r="I9" t="s">
         <v>250</v>
       </c>
       <c r="J9" s="1">
@@ -1718,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1">
@@ -1743,10 +1635,10 @@
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10">
+        <v>458971</v>
+      </c>
+      <c r="I10" t="s">
         <v>251</v>
       </c>
       <c r="J10" s="1">
@@ -1765,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1">
@@ -1790,10 +1682,10 @@
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11">
+        <v>458972</v>
+      </c>
+      <c r="I11" t="s">
         <v>252</v>
       </c>
       <c r="J11" s="1">
@@ -1812,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.75" customHeight="1">
@@ -1837,10 +1729,10 @@
       <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12">
+        <v>458973</v>
+      </c>
+      <c r="I12" t="s">
         <v>253</v>
       </c>
       <c r="J12" s="1">
@@ -1859,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24.75" customHeight="1">
@@ -1884,10 +1776,10 @@
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13">
+        <v>458974</v>
+      </c>
+      <c r="I13" t="s">
         <v>254</v>
       </c>
       <c r="J13" s="1">
@@ -1906,7 +1798,7 @@
         <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1">
@@ -1931,10 +1823,10 @@
       <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14">
+        <v>458975</v>
+      </c>
+      <c r="I14" t="s">
         <v>255</v>
       </c>
       <c r="J14" s="1">
@@ -1953,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="24.75" customHeight="1">
@@ -1978,10 +1870,10 @@
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15">
+        <v>458976</v>
+      </c>
+      <c r="I15" t="s">
         <v>256</v>
       </c>
       <c r="J15" s="1">
@@ -2000,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="24.75" customHeight="1">
@@ -2025,10 +1917,10 @@
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16">
+        <v>458977</v>
+      </c>
+      <c r="I16" t="s">
         <v>257</v>
       </c>
       <c r="J16" s="1">
@@ -2047,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.75" customHeight="1">
@@ -2072,10 +1964,10 @@
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17">
+        <v>458978</v>
+      </c>
+      <c r="I17" t="s">
         <v>258</v>
       </c>
       <c r="J17" s="1">
@@ -2094,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.75" customHeight="1">
@@ -2119,10 +2011,10 @@
       <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18">
+        <v>458979</v>
+      </c>
+      <c r="I18" t="s">
         <v>259</v>
       </c>
       <c r="J18" s="1">
@@ -2141,7 +2033,7 @@
         <v>23</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
@@ -2166,10 +2058,10 @@
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19">
+        <v>458980</v>
+      </c>
+      <c r="I19" t="s">
         <v>260</v>
       </c>
       <c r="J19" s="1">
@@ -2188,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.75" customHeight="1">
@@ -2213,10 +2105,10 @@
       <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20">
+        <v>458981</v>
+      </c>
+      <c r="I20" t="s">
         <v>261</v>
       </c>
       <c r="J20" s="1">
@@ -2235,7 +2127,7 @@
         <v>23</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.75" customHeight="1">
@@ -2260,10 +2152,10 @@
       <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21">
+        <v>458982</v>
+      </c>
+      <c r="I21" t="s">
         <v>262</v>
       </c>
       <c r="J21" s="1">
@@ -2282,7 +2174,7 @@
         <v>23</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.75" customHeight="1">
@@ -2307,11 +2199,11 @@
       <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>263</v>
+      <c r="H22">
+        <v>458963</v>
+      </c>
+      <c r="I22" t="s">
+        <v>243</v>
       </c>
       <c r="J22" s="1">
         <v>4</v>
@@ -2329,7 +2221,7 @@
         <v>23</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.75" customHeight="1">
@@ -2354,11 +2246,11 @@
       <c r="G23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>264</v>
+      <c r="H23">
+        <v>458964</v>
+      </c>
+      <c r="I23" t="s">
+        <v>244</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -2376,7 +2268,7 @@
         <v>23</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.75" customHeight="1">
@@ -2401,11 +2293,11 @@
       <c r="G24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>265</v>
+      <c r="H24">
+        <v>458965</v>
+      </c>
+      <c r="I24" t="s">
+        <v>245</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
@@ -2423,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.75" customHeight="1">
@@ -2448,11 +2340,11 @@
       <c r="G25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>266</v>
+      <c r="H25">
+        <v>458966</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -2470,7 +2362,7 @@
         <v>23</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.75" customHeight="1">
@@ -2495,11 +2387,11 @@
       <c r="G26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>267</v>
+      <c r="H26">
+        <v>458967</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
       </c>
       <c r="J26" s="1">
         <v>2</v>
@@ -2517,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.75" customHeight="1">
@@ -2542,11 +2434,11 @@
       <c r="G27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>268</v>
+      <c r="H27">
+        <v>458963</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
@@ -2564,7 +2456,7 @@
         <v>23</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.75" customHeight="1">
@@ -2589,11 +2481,11 @@
       <c r="G28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>269</v>
+      <c r="H28">
+        <v>458964</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -2611,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.75" customHeight="1">
@@ -2636,11 +2528,11 @@
       <c r="G29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>270</v>
+      <c r="H29">
+        <v>458965</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -2658,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.75" customHeight="1">
@@ -2683,11 +2575,11 @@
       <c r="G30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>271</v>
+      <c r="H30">
+        <v>458966</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
       </c>
       <c r="J30" s="1">
         <v>2</v>
@@ -2705,7 +2597,7 @@
         <v>23</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.75" customHeight="1">
@@ -2730,11 +2622,11 @@
       <c r="G31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>272</v>
+      <c r="H31">
+        <v>458967</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
@@ -2752,7 +2644,7 @@
         <v>23</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.75" customHeight="1">
@@ -2777,11 +2669,11 @@
       <c r="G32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>273</v>
+      <c r="H32">
+        <v>458969</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
@@ -2799,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.75" customHeight="1">
@@ -2824,11 +2716,11 @@
       <c r="G33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>274</v>
+      <c r="H33">
+        <v>458970</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
@@ -2846,7 +2738,7 @@
         <v>23</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.75" customHeight="1">
@@ -2871,11 +2763,11 @@
       <c r="G34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>275</v>
+      <c r="H34">
+        <v>458971</v>
+      </c>
+      <c r="I34" t="s">
+        <v>251</v>
       </c>
       <c r="J34" s="1">
         <v>2</v>
@@ -2893,7 +2785,7 @@
         <v>23</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.75" customHeight="1">
@@ -2918,11 +2810,11 @@
       <c r="G35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>276</v>
+      <c r="H35">
+        <v>458969</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -2940,7 +2832,7 @@
         <v>23</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.75" customHeight="1">
@@ -2965,11 +2857,11 @@
       <c r="G36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>277</v>
+      <c r="H36">
+        <v>458970</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
@@ -2987,7 +2879,7 @@
         <v>23</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="24.75" customHeight="1">
@@ -3012,11 +2904,11 @@
       <c r="G37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>278</v>
+      <c r="H37">
+        <v>458971</v>
+      </c>
+      <c r="I37" t="s">
+        <v>251</v>
       </c>
       <c r="J37" s="1">
         <v>6</v>
@@ -3059,11 +2951,11 @@
       <c r="G38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>279</v>
+      <c r="H38">
+        <v>458969</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
       </c>
       <c r="J38" s="1">
         <v>6</v>
@@ -3106,11 +2998,11 @@
       <c r="G39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>280</v>
+      <c r="H39">
+        <v>458970</v>
+      </c>
+      <c r="I39" t="s">
+        <v>250</v>
       </c>
       <c r="J39" s="1">
         <v>6</v>
@@ -3153,11 +3045,11 @@
       <c r="G40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>281</v>
+      <c r="H40">
+        <v>458971</v>
+      </c>
+      <c r="I40" t="s">
+        <v>251</v>
       </c>
       <c r="J40" s="1">
         <v>6</v>
@@ -3200,11 +3092,11 @@
       <c r="G41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>282</v>
+      <c r="H41">
+        <v>458979</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
       </c>
       <c r="J41" s="1">
         <v>3</v>
@@ -3222,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="24.75" customHeight="1">
@@ -3247,11 +3139,11 @@
       <c r="G42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>283</v>
+      <c r="H42">
+        <v>458980</v>
+      </c>
+      <c r="I42" t="s">
+        <v>260</v>
       </c>
       <c r="J42" s="1">
         <v>2</v>
@@ -3269,7 +3161,7 @@
         <v>23</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="24.75" customHeight="1">
@@ -3294,11 +3186,11 @@
       <c r="G43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>284</v>
+      <c r="H43">
+        <v>458981</v>
+      </c>
+      <c r="I43" t="s">
+        <v>261</v>
       </c>
       <c r="J43" s="1">
         <v>2</v>
@@ -3316,7 +3208,7 @@
         <v>23</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="24.75" customHeight="1">
@@ -3341,11 +3233,11 @@
       <c r="G44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>285</v>
+      <c r="H44">
+        <v>458982</v>
+      </c>
+      <c r="I44" t="s">
+        <v>262</v>
       </c>
       <c r="J44" s="1">
         <v>2</v>
@@ -3363,7 +3255,7 @@
         <v>23</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.75" customHeight="1">
@@ -3388,11 +3280,11 @@
       <c r="G45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>286</v>
+      <c r="H45">
+        <v>458963</v>
+      </c>
+      <c r="I45" t="s">
+        <v>243</v>
       </c>
       <c r="J45" s="1">
         <v>2</v>
@@ -3435,11 +3327,11 @@
       <c r="G46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>287</v>
+      <c r="H46">
+        <v>458979</v>
+      </c>
+      <c r="I46" t="s">
+        <v>259</v>
       </c>
       <c r="J46" s="1">
         <v>2</v>
@@ -3482,11 +3374,11 @@
       <c r="G47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>288</v>
+      <c r="H47">
+        <v>458980</v>
+      </c>
+      <c r="I47" t="s">
+        <v>260</v>
       </c>
       <c r="J47" s="1">
         <v>2</v>
@@ -3529,11 +3421,11 @@
       <c r="G48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>289</v>
+      <c r="H48">
+        <v>458981</v>
+      </c>
+      <c r="I48" t="s">
+        <v>261</v>
       </c>
       <c r="J48" s="1">
         <v>2</v>
@@ -3576,11 +3468,11 @@
       <c r="G49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>290</v>
+      <c r="H49">
+        <v>458982</v>
+      </c>
+      <c r="I49" t="s">
+        <v>262</v>
       </c>
       <c r="J49" s="1">
         <v>2</v>
@@ -3623,11 +3515,11 @@
       <c r="G50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>291</v>
+      <c r="H50">
+        <v>458963</v>
+      </c>
+      <c r="I50" t="s">
+        <v>243</v>
       </c>
       <c r="J50" s="1">
         <v>2</v>
@@ -3670,11 +3562,11 @@
       <c r="G51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>292</v>
+      <c r="H51">
+        <v>458979</v>
+      </c>
+      <c r="I51" t="s">
+        <v>259</v>
       </c>
       <c r="J51" s="1">
         <v>2</v>
@@ -3717,11 +3609,11 @@
       <c r="G52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>293</v>
+      <c r="H52">
+        <v>458980</v>
+      </c>
+      <c r="I52" t="s">
+        <v>260</v>
       </c>
       <c r="J52" s="1">
         <v>0.1</v>
@@ -3764,11 +3656,11 @@
       <c r="G53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>294</v>
+      <c r="H53">
+        <v>458981</v>
+      </c>
+      <c r="I53" t="s">
+        <v>261</v>
       </c>
       <c r="J53" s="1">
         <v>0.1</v>
@@ -3811,11 +3703,11 @@
       <c r="G54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>295</v>
+      <c r="H54">
+        <v>458982</v>
+      </c>
+      <c r="I54" t="s">
+        <v>262</v>
       </c>
       <c r="J54" s="1">
         <v>0.1</v>
@@ -3858,11 +3750,11 @@
       <c r="G55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>296</v>
+      <c r="H55">
+        <v>458963</v>
+      </c>
+      <c r="I55" t="s">
+        <v>243</v>
       </c>
       <c r="J55" s="1">
         <v>0.1</v>
@@ -3905,11 +3797,11 @@
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>297</v>
+      <c r="H56">
+        <v>458982</v>
+      </c>
+      <c r="I56" t="s">
+        <v>262</v>
       </c>
       <c r="J56" s="1">
         <v>0.1</v>
@@ -3952,11 +3844,11 @@
       <c r="G57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="1">
-        <v>301409</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>298</v>
+      <c r="H57">
+        <v>458963</v>
+      </c>
+      <c r="I57" t="s">
+        <v>243</v>
       </c>
       <c r="J57" s="1">
         <v>0.1</v>
@@ -3978,11 +3870,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O14">
-      <formula1>IIEP</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
